--- a/11-CollaborationList/CNRS-Institut-Curie.xlsx
+++ b/11-CollaborationList/CNRS-Institut-Curie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20A5597-E5C3-D84D-AD97-3E831005233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4525352-3B6E-E34D-84BC-C622496379D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AD094988-A457-9044-86A1-58DE43D24A21}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{AD094988-A457-9044-86A1-58DE43D24A21}"/>
   </bookViews>
   <sheets>
     <sheet name="CNRS-Institut-Curie" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -94,17 +94,35 @@
     <t xml:space="preserve">A. </t>
   </si>
   <si>
-    <t>Alfredo.fernandez-rodriguez@curie.fr</t>
-  </si>
-  <si>
     <t>Alfredo Fernandez-Rodriguez</t>
+  </si>
+  <si>
+    <t>Alfredo.fernandez-rodriguez@curie.fr; alfredofernandezrod@gmail.com</t>
+  </si>
+  <si>
+    <t>frederic.pouzoulet@curie.fr</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Pouzoulet</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t>F.Pouzoulet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +253,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -537,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -580,11 +606,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -618,6 +646,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -642,8 +671,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA1028E5-9ABD-124A-9518-518C08DAD92B}" name="Table1" displayName="Table1" ref="A1:P2" totalsRowShown="0">
-  <autoFilter ref="A1:P2" xr:uid="{DA1028E5-9ABD-124A-9518-518C08DAD92B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA1028E5-9ABD-124A-9518-518C08DAD92B}" name="Table1" displayName="Table1" ref="A1:P3" totalsRowShown="0">
+  <autoFilter ref="A1:P3" xr:uid="{DA1028E5-9ABD-124A-9518-518C08DAD92B}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{BB6016B1-80C3-E040-ABB1-1C3A7E24E79B}" name="Title"/>
     <tableColumn id="2" xr3:uid="{BD477CE4-93B2-A64E-ACFA-C9F73A744C43}" name="Name"/>
@@ -983,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DBDFDB-9E47-924E-BB85-AA0F5297078D}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,10 +1102,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -1094,10 +1123,42 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{23C0763F-A7F3-A745-8E92-48877E23C72E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/CNRS-Institut-Curie.xlsx
+++ b/11-CollaborationList/CNRS-Institut-Curie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050112243709/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4525352-3B6E-E34D-84BC-C622496379D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:9_{A4525352-3B6E-E34D-84BC-C622496379D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0BB903-43A6-544B-84F4-1C21F77EE01A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{AD094988-A457-9044-86A1-58DE43D24A21}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{AD094988-A457-9044-86A1-58DE43D24A21}"/>
   </bookViews>
   <sheets>
     <sheet name="CNRS-Institut-Curie" sheetId="1" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="68.6640625" bestFit="1" customWidth="1"/>
